--- a/medicine/Pharmacie/Fosfomycine/Fosfomycine.xlsx
+++ b/medicine/Pharmacie/Fosfomycine/Fosfomycine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La fosfomycine est un antibiotique à large spectre produit par certaines espèces de Streptomyces. Elle a été synthétisée pour la première fois en Espagne en 1970 par Sagrario Mochales del Val[4].
+La fosfomycine est un antibiotique à large spectre produit par certaines espèces de Streptomyces. Elle a été synthétisée pour la première fois en Espagne en 1970 par Sagrario Mochales del Val.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle agit en inhibant la synthèse de la paroi des bactéries.
 </t>
@@ -543,10 +557,12 @@
           <t>Indication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fosfomycine est indiquée dans le traitement des infections des voies urinaires, notamment dues à Escherichia coli, Proteus mirabilis, où elle est habituellement administrée en dose unique. Les résistances bactériennes à la fosfomycine sont courantes[5],[6],[7].
-Lorsqu'elle est administrée par voie systémique (intraveineuse), la fosfomycine est presque toujours associée à une autre molécule antibiotique en tant que « partenaire ». Cela se fait principalement pour deux raisons : 1) prévenir l'émergence de résistances ; 2) exploiter l'activité synergique avec de nombreux autres antibiotiques[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fosfomycine est indiquée dans le traitement des infections des voies urinaires, notamment dues à Escherichia coli, Proteus mirabilis, où elle est habituellement administrée en dose unique. Les résistances bactériennes à la fosfomycine sont courantes.
+Lorsqu'elle est administrée par voie systémique (intraveineuse), la fosfomycine est presque toujours associée à une autre molécule antibiotique en tant que « partenaire ». Cela se fait principalement pour deux raisons : 1) prévenir l'émergence de résistances ; 2) exploiter l'activité synergique avec de nombreux autres antibiotiques.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Grossesse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La fosfomycine a l'avantage de pouvoir être donnée aux femmes enceintes, contrairement à d'autres antibiotiques utilisés dans le traitement des infections urinaires basses comme la furandantine, le triméthoprime ou les fluoroquinolones.
@@ -607,10 +625,12 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La fosfomycine est bien tolérée dans les expérimentations animales. Le taux d'effets indésirables est faible, il se produisent en particulier dans la zone du tractus gastro-intestinal.
-Les effets indésirables suivants peuvent apparaître[9] :
+Les effets indésirables suivants peuvent apparaître :
 inflammation vulvaire et vaginale ;
 maux de tête, vertiges ;
 diarrhées, nausées ;
